--- a/builder/src/main/resources/templates/v2_regulated/ESPD-CriteriaTaxonomy-REGULATED-V2.0.2.xlsx
+++ b/builder/src/main/resources/templates/v2_regulated/ESPD-CriteriaTaxonomy-REGULATED-V2.0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetbeansProjects\espd-vcd-system\builder\src\main\resources\templates\v2_regulated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D4037A-FE04-46BC-AF53-20D0AE3213FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66208BBB-A22B-415F-9F92-C4FD9C940A1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11507" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11507" uniqueCount="427">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>73f0fe4c-4ed9-4343-8096-d898cf200146</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ONTRUE</t>
   </si>
   <si>
     <t>Direct or indirect involvement in the preparation of this procurement procedure</t>
@@ -2731,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>
@@ -2867,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -2937,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="Y3" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -3135,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X7" s="27" t="s">
         <v>25</v>
@@ -3179,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
@@ -3230,7 +3227,7 @@
         <v>28</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U9" s="52">
         <v>1</v>
@@ -3281,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U10" s="52">
         <v>1</v>
@@ -3390,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="W12" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y12" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -3436,7 +3433,7 @@
         <v>33</v>
       </c>
       <c r="T13" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U13" s="52">
         <v>1</v>
@@ -3546,7 +3543,7 @@
         <v>35</v>
       </c>
       <c r="T15" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U15" s="52">
         <v>1</v>
@@ -3806,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X20" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -3845,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U21" s="52">
         <v>1</v>
@@ -3904,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y22" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -3945,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T23" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U23" s="52">
         <v>1</v>
       </c>
       <c r="V23" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W23" s="25"/>
       <c r="X23" s="27"/>
@@ -4147,7 +4144,7 @@
         <v>41</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -4287,7 +4284,7 @@
         <v>22</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U30" s="52">
         <v>1</v>
@@ -4345,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X31" s="27" t="s">
         <v>25</v>
@@ -4389,7 +4386,7 @@
         <v>26</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U32" s="52">
         <v>1</v>
@@ -4440,7 +4437,7 @@
         <v>28</v>
       </c>
       <c r="T33" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U33" s="52">
         <v>1</v>
@@ -4491,7 +4488,7 @@
         <v>30</v>
       </c>
       <c r="T34" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U34" s="52">
         <v>1</v>
@@ -4600,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="W36" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X36" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y36" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -4646,7 +4643,7 @@
         <v>33</v>
       </c>
       <c r="T37" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U37" s="52">
         <v>1</v>
@@ -4756,7 +4753,7 @@
         <v>35</v>
       </c>
       <c r="T39" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U39" s="52">
         <v>1</v>
@@ -5016,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X44" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y44" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -5055,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T45" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U45" s="52">
         <v>1</v>
@@ -5114,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X46" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y46" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -5155,16 +5152,16 @@
         <v>0</v>
       </c>
       <c r="S47" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T47" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U47" s="52">
         <v>1</v>
       </c>
       <c r="V47" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W47" s="25"/>
       <c r="X47" s="27"/>
@@ -5367,7 +5364,7 @@
         <v>45</v>
       </c>
       <c r="Y51" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -5507,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="T54" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U54" s="52">
         <v>1</v>
@@ -5565,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X55" s="27" t="s">
         <v>25</v>
@@ -5609,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="T56" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U56" s="52">
         <v>1</v>
@@ -5660,7 +5657,7 @@
         <v>28</v>
       </c>
       <c r="T57" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U57" s="52">
         <v>1</v>
@@ -5711,7 +5708,7 @@
         <v>30</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U58" s="52">
         <v>1</v>
@@ -5820,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X60" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y60" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -5866,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="T61" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U61" s="52">
         <v>1</v>
@@ -5976,7 +5973,7 @@
         <v>35</v>
       </c>
       <c r="T63" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U63" s="52">
         <v>1</v>
@@ -6236,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="W68" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X68" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y68" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -6275,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="S69" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T69" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U69" s="52">
         <v>1</v>
@@ -6334,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X70" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y70" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -6375,16 +6372,16 @@
         <v>0</v>
       </c>
       <c r="S71" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T71" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U71" s="52">
         <v>1</v>
       </c>
       <c r="V71" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W71" s="25"/>
       <c r="X71" s="27"/>
@@ -6587,7 +6584,7 @@
         <v>49</v>
       </c>
       <c r="Y75" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -6727,7 +6724,7 @@
         <v>22</v>
       </c>
       <c r="T78" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U78" s="52">
         <v>1</v>
@@ -6785,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X79" s="27" t="s">
         <v>25</v>
@@ -6829,7 +6826,7 @@
         <v>26</v>
       </c>
       <c r="T80" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U80" s="52">
         <v>1</v>
@@ -6880,7 +6877,7 @@
         <v>28</v>
       </c>
       <c r="T81" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U81" s="52">
         <v>1</v>
@@ -6931,7 +6928,7 @@
         <v>30</v>
       </c>
       <c r="T82" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U82" s="52">
         <v>1</v>
@@ -7040,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="W84" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X84" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y84" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -7086,7 +7083,7 @@
         <v>33</v>
       </c>
       <c r="T85" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U85" s="52">
         <v>1</v>
@@ -7196,7 +7193,7 @@
         <v>35</v>
       </c>
       <c r="T87" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U87" s="52">
         <v>1</v>
@@ -7456,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="W92" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X92" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y92" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -7495,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="S93" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T93" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U93" s="52">
         <v>1</v>
@@ -7554,13 +7551,13 @@
         <v>0</v>
       </c>
       <c r="W94" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X94" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y94" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -7595,16 +7592,16 @@
         <v>0</v>
       </c>
       <c r="S95" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T95" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U95" s="52">
         <v>1</v>
       </c>
       <c r="V95" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W95" s="25"/>
       <c r="X95" s="27"/>
@@ -7807,7 +7804,7 @@
         <v>53</v>
       </c>
       <c r="Y99" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -7947,7 +7944,7 @@
         <v>22</v>
       </c>
       <c r="T102" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U102" s="52">
         <v>1</v>
@@ -8005,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X103" s="27" t="s">
         <v>25</v>
@@ -8049,7 +8046,7 @@
         <v>26</v>
       </c>
       <c r="T104" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U104" s="52">
         <v>1</v>
@@ -8100,7 +8097,7 @@
         <v>28</v>
       </c>
       <c r="T105" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U105" s="52">
         <v>1</v>
@@ -8151,7 +8148,7 @@
         <v>30</v>
       </c>
       <c r="T106" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U106" s="52">
         <v>1</v>
@@ -8260,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="W108" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X108" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y108" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -8306,7 +8303,7 @@
         <v>33</v>
       </c>
       <c r="T109" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U109" s="52">
         <v>1</v>
@@ -8416,7 +8413,7 @@
         <v>35</v>
       </c>
       <c r="T111" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U111" s="52">
         <v>1</v>
@@ -8676,13 +8673,13 @@
         <v>0</v>
       </c>
       <c r="W116" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X116" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y116" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -8715,10 +8712,10 @@
         <v>0</v>
       </c>
       <c r="S117" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T117" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U117" s="52">
         <v>1</v>
@@ -8774,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="W118" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X118" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y118" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -8815,16 +8812,16 @@
         <v>0</v>
       </c>
       <c r="S119" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T119" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U119" s="52">
         <v>1</v>
       </c>
       <c r="V119" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W119" s="25"/>
       <c r="X119" s="27"/>
@@ -9019,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="W123" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X123" s="30" t="s">
         <v>56</v>
       </c>
       <c r="Y123" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9165,7 +9162,7 @@
         <v>22</v>
       </c>
       <c r="T126" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U126" s="52">
         <v>1</v>
@@ -9223,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X127" s="27" t="s">
         <v>25</v>
@@ -9267,7 +9264,7 @@
         <v>26</v>
       </c>
       <c r="T128" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U128" s="52">
         <v>1</v>
@@ -9318,7 +9315,7 @@
         <v>28</v>
       </c>
       <c r="T129" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U129" s="52">
         <v>1</v>
@@ -9369,7 +9366,7 @@
         <v>30</v>
       </c>
       <c r="T130" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U130" s="52">
         <v>1</v>
@@ -9478,13 +9475,13 @@
         <v>0</v>
       </c>
       <c r="W132" s="141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X132" s="27" t="s">
         <v>25</v>
       </c>
       <c r="Y132" s="141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9524,7 +9521,7 @@
         <v>33</v>
       </c>
       <c r="T133" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U133" s="52">
         <v>1</v>
@@ -9634,7 +9631,7 @@
         <v>35</v>
       </c>
       <c r="T135" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U135" s="52">
         <v>1</v>
@@ -9894,13 +9891,13 @@
         <v>0</v>
       </c>
       <c r="W140" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X140" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Y140" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9933,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="S141" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T141" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U141" s="52">
         <v>1</v>
@@ -9992,13 +9989,13 @@
         <v>0</v>
       </c>
       <c r="W142" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X142" s="25" t="s">
         <v>25</v>
       </c>
       <c r="Y142" s="141" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -10033,16 +10030,16 @@
         <v>0</v>
       </c>
       <c r="S143" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T143" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U143" s="52">
         <v>1</v>
       </c>
       <c r="V143" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W143" s="25"/>
       <c r="X143" s="27"/>
@@ -10367,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -10440,10 +10437,10 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>143</v>
       </c>
       <c r="T3" s="98"/>
       <c r="U3" s="34" t="s">
@@ -10453,13 +10450,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
@@ -10518,7 +10515,7 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X4" s="54" t="s">
         <v>0</v>
@@ -10569,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X5" s="38" t="s">
         <v>14</v>
@@ -10609,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="36">
         <v>1</v>
@@ -10719,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -10754,10 +10751,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -10811,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -10848,16 +10845,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23"/>
       <c r="X11" s="23" t="s">
@@ -11046,10 +11043,10 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="34" t="s">
@@ -11059,13 +11056,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="X15" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="Y15" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
@@ -11124,7 +11121,7 @@
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X16" s="54" t="s">
         <v>0</v>
@@ -11175,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X17" s="38" t="s">
         <v>14</v>
@@ -11215,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T18" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="36">
         <v>1</v>
@@ -11325,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X20" s="138" t="s">
         <v>14</v>
@@ -11360,10 +11357,10 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T21" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U21" s="97">
         <v>1</v>
@@ -11417,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>25</v>
@@ -11454,16 +11451,16 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U23" s="97">
         <v>1</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W23" s="23"/>
       <c r="X23" s="23" t="s">
@@ -11784,7 +11781,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -11859,10 +11856,10 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>152</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="34" t="s">
@@ -11872,13 +11869,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="X3" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="X3" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="Y3" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -11913,7 +11910,7 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X4" s="54" t="s">
         <v>0</v>
@@ -11964,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X5" s="38" t="s">
         <v>14</v>
@@ -12003,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="36">
         <v>1</v>
@@ -12060,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X7" s="37" t="s">
         <v>25</v>
@@ -12124,7 +12121,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="37">
         <v>1</v>
@@ -12322,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X11" s="138" t="s">
         <v>14</v>
@@ -12381,10 +12378,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
@@ -12462,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>25</v>
@@ -12523,16 +12520,16 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U14" s="97">
         <v>1</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W14" s="23" t="s">
         <v>0</v>
@@ -12794,10 +12791,10 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T18" s="34"/>
       <c r="U18" s="34" t="s">
@@ -12807,13 +12804,13 @@
         <v>0</v>
       </c>
       <c r="W18" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="X18" s="34" t="s">
-        <v>157</v>
-      </c>
       <c r="Y18" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:49" s="116" customFormat="1" x14ac:dyDescent="0.25">
@@ -12848,7 +12845,7 @@
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X19" s="131" t="s">
         <v>0</v>
@@ -12923,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>14</v>
@@ -12986,10 +12983,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T21" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U21" s="36">
         <v>1</v>
@@ -13067,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X22" s="37" t="s">
         <v>25</v>
@@ -13131,7 +13128,7 @@
         <v>35</v>
       </c>
       <c r="T23" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U23" s="37">
         <v>1</v>
@@ -13353,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X26" s="138" t="s">
         <v>14</v>
@@ -13412,10 +13409,10 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T27" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U27" s="97">
         <v>1</v>
@@ -13493,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>25</v>
@@ -13554,16 +13551,16 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W29" s="23" t="s">
         <v>0</v>
@@ -13967,7 +13964,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -14018,10 +14015,10 @@
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="T3" s="98"/>
       <c r="U3" s="75" t="s">
@@ -14031,13 +14028,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="X3" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="Y3" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14141,13 +14138,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -14186,14 +14183,14 @@
         <v>0</v>
       </c>
       <c r="S6" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T6" s="142"/>
       <c r="U6" s="97">
         <v>1</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W6" s="49" t="s">
         <v>0</v>
@@ -14241,10 +14238,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="97">
         <v>1</v>
@@ -14353,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X9" s="138" t="s">
         <v>14</v>
@@ -14388,10 +14385,10 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -14445,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>25</v>
@@ -14482,16 +14479,16 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W12" s="23" t="s">
         <v>0</v>
@@ -14817,7 +14814,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -14888,10 +14885,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T3" s="50"/>
       <c r="U3" s="50" t="s">
@@ -14901,13 +14898,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" s="129" t="s">
         <v>170</v>
       </c>
-      <c r="X3" s="129" t="s">
-        <v>171</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -15007,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X5" s="66" t="s">
         <v>14</v>
@@ -15048,16 +15045,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>0</v>
@@ -15103,10 +15100,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="55">
         <v>1</v>
@@ -15211,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X9" s="138" t="s">
         <v>14</v>
@@ -15270,10 +15267,10 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -15351,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>25</v>
@@ -15412,16 +15409,16 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W12" s="23" t="s">
         <v>0</v>
@@ -15846,7 +15843,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -15917,10 +15914,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="T3" s="50"/>
       <c r="U3" s="50" t="s">
@@ -15930,13 +15927,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="X3" s="129" t="s">
-        <v>179</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -16036,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X5" s="66" t="s">
         <v>14</v>
@@ -16077,16 +16074,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>0</v>
@@ -16132,10 +16129,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="55">
         <v>1</v>
@@ -16240,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X9" s="138" t="s">
         <v>14</v>
@@ -16299,10 +16296,10 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -16380,7 +16377,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>25</v>
@@ -16441,16 +16438,16 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W12" s="23" t="s">
         <v>0</v>
@@ -16818,7 +16815,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -16869,10 +16866,10 @@
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="21" t="s">
@@ -16882,13 +16879,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="X3" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="Y3" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -16992,13 +16989,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -17037,16 +17034,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T6" s="142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U6" s="97">
         <v>1</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W6" s="49" t="s">
         <v>0</v>
@@ -17094,10 +17091,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="49">
         <v>1</v>
@@ -17206,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X9" s="138" t="s">
         <v>14</v>
@@ -17241,10 +17238,10 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -17298,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>25</v>
@@ -17335,16 +17332,16 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W12" s="23" t="s">
         <v>0</v>
@@ -17673,7 +17670,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -17748,10 +17745,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53" t="s">
@@ -17761,13 +17758,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>183</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -17919,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X5" s="79" t="s">
         <v>14</v>
@@ -17986,10 +17983,10 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
       <c r="S6" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="79">
         <v>1</v>
@@ -18146,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -18205,10 +18202,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -18286,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -18347,16 +18344,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -18786,7 +18783,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -18859,10 +18856,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53" t="s">
@@ -18872,13 +18869,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>189</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -18966,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="137" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X5" s="52" t="s">
         <v>14</v>
@@ -19030,7 +19027,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="52" t="s">
         <v>13</v>
@@ -19094,7 +19091,7 @@
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T7" s="48"/>
       <c r="U7" s="52">
@@ -19238,7 +19235,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X9" s="138" t="s">
         <v>14</v>
@@ -19297,10 +19294,10 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -19378,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X11" s="97" t="s">
         <v>25</v>
@@ -19439,16 +19436,16 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W12" s="23" t="s">
         <v>0</v>
@@ -19873,7 +19870,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -19944,10 +19941,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>190</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>191</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53" t="s">
@@ -19957,13 +19954,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="X3" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>193</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -20109,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X5" s="52" t="s">
         <v>14</v>
@@ -20176,10 +20173,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -20328,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="52" t="s">
         <v>14</v>
@@ -20387,10 +20384,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -20468,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="97" t="s">
         <v>25</v>
@@ -20529,16 +20526,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -20965,7 +20962,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -21038,10 +21035,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53" t="s">
@@ -21051,13 +21048,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="X3" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>197</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -21205,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X5" s="143" t="s">
         <v>14</v>
@@ -21275,7 +21272,7 @@
         <v>35</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -21426,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="145" t="s">
         <v>14</v>
@@ -21485,10 +21482,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -21566,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="146" t="s">
         <v>25</v>
@@ -21627,16 +21624,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -22038,7 +22035,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -22100,7 +22097,7 @@
         <v>60</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22224,7 +22221,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U6" s="97" t="s">
         <v>0</v>
@@ -22320,7 +22317,7 @@
         <v>63</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U8" s="97">
         <v>1</v>
@@ -22369,7 +22366,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -22469,7 +22466,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
@@ -22482,7 +22479,7 @@
       </c>
       <c r="X11" s="20"/>
       <c r="Y11" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22527,7 +22524,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="X12" s="17" t="s">
         <v>25</v>
@@ -22571,7 +22568,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U13" s="97">
         <v>1</v>
@@ -22709,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X16" s="17" t="s">
         <v>71</v>
@@ -22751,7 +22748,7 @@
         <v>70</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U17" s="97">
         <v>1</v>
@@ -22811,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="137" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>25</v>
@@ -22852,10 +22849,10 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T19" s="110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U19" s="97">
         <v>1</v>
@@ -22905,10 +22902,10 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T20" s="110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
@@ -23066,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>14</v>
@@ -23108,7 +23105,7 @@
         <v>72</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U24" s="97">
         <v>1</v>
@@ -23168,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>25</v>
@@ -23212,7 +23209,7 @@
         <v>35</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U26" s="97">
         <v>1</v>
@@ -23458,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X31" s="23" t="s">
         <v>14</v>
@@ -23493,10 +23490,10 @@
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T32" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U32" s="97">
         <v>1</v>
@@ -23550,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X33" s="19" t="s">
         <v>25</v>
@@ -23587,16 +23584,16 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T34" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U34" s="97">
         <v>1</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W34" s="23" t="s">
         <v>0</v>
@@ -23803,7 +23800,7 @@
         <v>76</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -23927,7 +23924,7 @@
         <v>22</v>
       </c>
       <c r="T41" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U41" s="97" t="s">
         <v>0</v>
@@ -24023,7 +24020,7 @@
         <v>63</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U43" s="97">
         <v>1</v>
@@ -24072,7 +24069,7 @@
         <v>65</v>
       </c>
       <c r="T44" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U44" s="97">
         <v>1</v>
@@ -24172,7 +24169,7 @@
         <v>68</v>
       </c>
       <c r="T46" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U46" s="97">
         <v>1</v>
@@ -24185,7 +24182,7 @@
       </c>
       <c r="X46" s="20"/>
       <c r="Y46" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -24230,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="X47" s="17" t="s">
         <v>25</v>
@@ -24274,7 +24271,7 @@
         <v>69</v>
       </c>
       <c r="T48" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U48" s="97">
         <v>1</v>
@@ -24412,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X51" s="17" t="s">
         <v>71</v>
@@ -24454,7 +24451,7 @@
         <v>70</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U52" s="97">
         <v>1</v>
@@ -24514,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="137" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X53" s="19" t="s">
         <v>25</v>
@@ -24555,10 +24552,10 @@
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T54" s="110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U54" s="97">
         <v>1</v>
@@ -24608,10 +24605,10 @@
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T55" s="110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U55" s="97">
         <v>1</v>
@@ -24769,7 +24766,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X58" s="19" t="s">
         <v>14</v>
@@ -24811,7 +24808,7 @@
         <v>72</v>
       </c>
       <c r="T59" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U59" s="97">
         <v>1</v>
@@ -24871,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X60" s="19" t="s">
         <v>25</v>
@@ -24915,7 +24912,7 @@
         <v>35</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U61" s="97">
         <v>1</v>
@@ -25161,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X66" s="23" t="s">
         <v>14</v>
@@ -25196,10 +25193,10 @@
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T67" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U67" s="97">
         <v>1</v>
@@ -25253,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X68" s="19" t="s">
         <v>25</v>
@@ -25290,16 +25287,16 @@
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U69" s="97">
         <v>1</v>
       </c>
       <c r="V69" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W69" s="23" t="s">
         <v>0</v>
@@ -25599,7 +25596,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -25650,10 +25647,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="S3" s="85" t="s">
         <v>199</v>
-      </c>
-      <c r="S3" s="85" t="s">
-        <v>200</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="53" t="s">
@@ -25663,13 +25660,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="X3" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="X3" s="85" t="s">
-        <v>202</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -25767,7 +25764,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X5" s="27" t="s">
         <v>14</v>
@@ -25813,7 +25810,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -25865,10 +25862,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="52">
         <v>1</v>
@@ -25920,16 +25917,16 @@
         <v>0</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T8" s="147" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W8" s="25" t="s">
         <v>0</v>
@@ -25975,10 +25972,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T9" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U9" s="52">
         <v>1</v>
@@ -26083,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X11" s="138" t="s">
         <v>14</v>
@@ -26118,10 +26115,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
@@ -26175,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>25</v>
@@ -26212,16 +26209,16 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U14" s="97">
         <v>1</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W14" s="23" t="s">
         <v>0</v>
@@ -26385,10 +26382,10 @@
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="S18" s="85" t="s">
         <v>204</v>
-      </c>
-      <c r="S18" s="85" t="s">
-        <v>205</v>
       </c>
       <c r="T18" s="30"/>
       <c r="U18" s="53" t="s">
@@ -26398,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="W18" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="X18" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="X18" s="85" t="s">
-        <v>207</v>
-      </c>
       <c r="Y18" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -26502,7 +26499,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X20" s="27" t="s">
         <v>14</v>
@@ -26548,7 +26545,7 @@
         <v>2</v>
       </c>
       <c r="T21" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U21" s="52">
         <v>1</v>
@@ -26600,10 +26597,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T22" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U22" s="52">
         <v>1</v>
@@ -26655,16 +26652,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T23" s="147" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U23" s="52">
         <v>1</v>
       </c>
       <c r="V23" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W23" s="25" t="s">
         <v>0</v>
@@ -26710,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T24" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U24" s="52">
         <v>1</v>
@@ -26818,7 +26815,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X26" s="138" t="s">
         <v>14</v>
@@ -26853,10 +26850,10 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T27" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U27" s="97">
         <v>1</v>
@@ -26910,7 +26907,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>25</v>
@@ -26947,16 +26944,16 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W29" s="23" t="s">
         <v>0</v>
@@ -27122,10 +27119,10 @@
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S33" s="87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T33" s="21"/>
       <c r="U33" s="75" t="s">
@@ -27135,13 +27132,13 @@
         <v>0</v>
       </c>
       <c r="W33" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="X33" s="89" t="s">
-        <v>295</v>
-      </c>
       <c r="Y33" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -27239,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X35" s="27" t="s">
         <v>14</v>
@@ -27285,7 +27282,7 @@
         <v>2</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U36" s="52">
         <v>1</v>
@@ -27337,10 +27334,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T37" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U37" s="52">
         <v>1</v>
@@ -27392,16 +27389,16 @@
         <v>0</v>
       </c>
       <c r="S38" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T38" s="147" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U38" s="52">
         <v>1</v>
       </c>
       <c r="V38" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W38" s="25" t="s">
         <v>0</v>
@@ -27447,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T39" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U39" s="52">
         <v>1</v>
@@ -27555,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X41" s="138" t="s">
         <v>14</v>
@@ -27590,10 +27587,10 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T42" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U42" s="97">
         <v>1</v>
@@ -27647,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X43" s="19" t="s">
         <v>25</v>
@@ -27684,16 +27681,16 @@
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U44" s="97">
         <v>1</v>
       </c>
       <c r="V44" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W44" s="23" t="s">
         <v>0</v>
@@ -27975,7 +27972,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -28022,10 +28019,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="50" t="s">
@@ -28035,13 +28032,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X3" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="X3" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28129,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X5" s="55" t="s">
         <v>14</v>
@@ -28171,7 +28168,7 @@
         <v>35</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -28272,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -28307,10 +28304,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -28364,7 +28361,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -28401,16 +28398,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -28592,10 +28589,10 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="50" t="s">
@@ -28605,13 +28602,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="X15" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="X15" s="50" t="s">
-        <v>215</v>
-      </c>
       <c r="Y15" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -28699,7 +28696,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X17" s="55" t="s">
         <v>14</v>
@@ -28741,7 +28738,7 @@
         <v>35</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="55">
         <v>1</v>
@@ -28842,7 +28839,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X20" s="138" t="s">
         <v>14</v>
@@ -28877,10 +28874,10 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T21" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U21" s="97">
         <v>1</v>
@@ -28934,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>25</v>
@@ -28971,16 +28968,16 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U23" s="97">
         <v>1</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W23" s="23" t="s">
         <v>0</v>
@@ -29172,10 +29169,10 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="50" t="s">
@@ -29185,13 +29182,13 @@
         <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="X27" s="50" t="s">
-        <v>219</v>
-      </c>
       <c r="Y27" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -29279,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X29" s="55" t="s">
         <v>14</v>
@@ -29321,7 +29318,7 @@
         <v>35</v>
       </c>
       <c r="T30" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U30" s="55">
         <v>1</v>
@@ -29422,7 +29419,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X32" s="138" t="s">
         <v>14</v>
@@ -29457,10 +29454,10 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T33" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U33" s="97">
         <v>1</v>
@@ -29514,7 +29511,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X34" s="19" t="s">
         <v>25</v>
@@ -29551,16 +29548,16 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U35" s="97">
         <v>1</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W35" s="23" t="s">
         <v>0</v>
@@ -29752,10 +29749,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S39" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="50" t="s">
@@ -29765,13 +29762,13 @@
         <v>0</v>
       </c>
       <c r="W39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="X39" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="X39" s="50" t="s">
-        <v>223</v>
-      </c>
       <c r="Y39" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -29859,7 +29856,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X41" s="55" t="s">
         <v>14</v>
@@ -29901,7 +29898,7 @@
         <v>35</v>
       </c>
       <c r="T42" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U42" s="55">
         <v>1</v>
@@ -30002,7 +29999,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X44" s="138" t="s">
         <v>14</v>
@@ -30037,10 +30034,10 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T45" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U45" s="97">
         <v>1</v>
@@ -30094,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X46" s="19" t="s">
         <v>25</v>
@@ -30131,16 +30128,16 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U47" s="97">
         <v>1</v>
       </c>
       <c r="V47" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W47" s="23" t="s">
         <v>0</v>
@@ -30332,10 +30329,10 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S51" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="50" t="s">
@@ -30345,13 +30342,13 @@
         <v>0</v>
       </c>
       <c r="W51" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X51" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="X51" s="50" t="s">
-        <v>227</v>
-      </c>
       <c r="Y51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -30439,7 +30436,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X53" s="55" t="s">
         <v>14</v>
@@ -30481,7 +30478,7 @@
         <v>35</v>
       </c>
       <c r="T54" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U54" s="55">
         <v>1</v>
@@ -30582,7 +30579,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X56" s="138" t="s">
         <v>14</v>
@@ -30617,10 +30614,10 @@
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T57" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U57" s="97">
         <v>1</v>
@@ -30674,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X58" s="19" t="s">
         <v>25</v>
@@ -30711,16 +30708,16 @@
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U59" s="97">
         <v>1</v>
       </c>
       <c r="V59" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W59" s="23" t="s">
         <v>0</v>
@@ -30912,10 +30909,10 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S63" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="50" t="s">
@@ -30925,13 +30922,13 @@
         <v>0</v>
       </c>
       <c r="W63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="X63" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="X63" s="50" t="s">
-        <v>231</v>
-      </c>
       <c r="Y63" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -31019,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X65" s="55" t="s">
         <v>14</v>
@@ -31061,7 +31058,7 @@
         <v>35</v>
       </c>
       <c r="T66" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U66" s="55">
         <v>1</v>
@@ -31162,7 +31159,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X68" s="138" t="s">
         <v>14</v>
@@ -31197,10 +31194,10 @@
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T69" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U69" s="97">
         <v>1</v>
@@ -31254,7 +31251,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X70" s="19" t="s">
         <v>25</v>
@@ -31291,16 +31288,16 @@
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T71" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U71" s="97">
         <v>1</v>
       </c>
       <c r="V71" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W71" s="23" t="s">
         <v>0</v>
@@ -31492,10 +31489,10 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S75" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="T75" s="3"/>
       <c r="U75" s="50" t="s">
@@ -31505,13 +31502,13 @@
         <v>0</v>
       </c>
       <c r="W75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="X75" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="X75" s="50" t="s">
-        <v>235</v>
-      </c>
       <c r="Y75" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -31599,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X77" s="55" t="s">
         <v>14</v>
@@ -31641,7 +31638,7 @@
         <v>35</v>
       </c>
       <c r="T78" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U78" s="55">
         <v>1</v>
@@ -31742,7 +31739,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X80" s="138" t="s">
         <v>14</v>
@@ -31777,10 +31774,10 @@
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T81" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U81" s="97">
         <v>1</v>
@@ -31834,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="W82" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X82" s="19" t="s">
         <v>25</v>
@@ -31871,16 +31868,16 @@
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T83" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U83" s="97">
         <v>1</v>
       </c>
       <c r="V83" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W83" s="23" t="s">
         <v>0</v>
@@ -32072,10 +32069,10 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="S87" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="50" t="s">
@@ -32085,13 +32082,13 @@
         <v>0</v>
       </c>
       <c r="W87" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="X87" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="X87" s="50" t="s">
-        <v>239</v>
-      </c>
       <c r="Y87" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -32179,7 +32176,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X89" s="55" t="s">
         <v>14</v>
@@ -32221,7 +32218,7 @@
         <v>35</v>
       </c>
       <c r="T90" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U90" s="55">
         <v>1</v>
@@ -32322,7 +32319,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X92" s="138" t="s">
         <v>14</v>
@@ -32357,10 +32354,10 @@
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T93" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U93" s="97">
         <v>1</v>
@@ -32414,7 +32411,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X94" s="19" t="s">
         <v>25</v>
@@ -32451,16 +32448,16 @@
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T95" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U95" s="97">
         <v>1</v>
       </c>
       <c r="V95" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W95" s="23" t="s">
         <v>0</v>
@@ -32797,7 +32794,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -32870,10 +32867,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="50" t="s">
@@ -32883,13 +32880,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -32989,7 +32986,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>14</v>
@@ -33026,10 +33023,10 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -33136,7 +33133,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -33195,10 +33192,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -33276,7 +33273,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -33337,16 +33334,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -33770,7 +33767,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -33843,10 +33840,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="50" t="s">
@@ -33856,13 +33853,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -33952,13 +33949,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -33989,16 +33986,16 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6" t="s">
@@ -34036,16 +34033,16 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="55">
         <v>1</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6" t="s">
@@ -34136,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>14</v>
@@ -34173,16 +34170,16 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="55">
         <v>1</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6" t="s">
@@ -34220,16 +34217,16 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T11" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U11" s="55">
         <v>1</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6" t="s">
@@ -34320,7 +34317,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>14</v>
@@ -34357,16 +34354,16 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T14" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U14" s="55">
         <v>1</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6" t="s">
@@ -34404,16 +34401,16 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T15" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U15" s="55">
         <v>1</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6" t="s">
@@ -34504,7 +34501,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X17" s="138" t="s">
         <v>14</v>
@@ -34563,10 +34560,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T18" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U18" s="97">
         <v>1</v>
@@ -34644,7 +34641,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>25</v>
@@ -34705,16 +34702,16 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="23" t="s">
         <v>0</v>
@@ -34998,10 +34995,10 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="50" t="s">
@@ -35011,13 +35008,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="Y24" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -35107,13 +35104,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -35144,16 +35141,16 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T27" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U27" s="55">
         <v>1</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6" t="s">
@@ -35191,16 +35188,16 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T28" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U28" s="55">
         <v>1</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6" t="s">
@@ -35291,7 +35288,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X30" s="4" t="s">
         <v>14</v>
@@ -35328,16 +35325,16 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T31" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U31" s="55">
         <v>1</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6" t="s">
@@ -35375,16 +35372,16 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T32" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U32" s="55">
         <v>1</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6" t="s">
@@ -35475,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>14</v>
@@ -35512,16 +35509,16 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T35" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U35" s="55">
         <v>1</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6" t="s">
@@ -35559,16 +35556,16 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U36" s="55">
         <v>1</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6" t="s">
@@ -35659,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X38" s="138" t="s">
         <v>14</v>
@@ -35718,10 +35715,10 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T39" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U39" s="97">
         <v>1</v>
@@ -35799,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X40" s="19" t="s">
         <v>25</v>
@@ -35860,16 +35857,16 @@
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U41" s="97">
         <v>1</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W41" s="23" t="s">
         <v>0</v>
@@ -36292,7 +36289,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -36367,10 +36364,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="3" t="s">
@@ -36380,13 +36377,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X3" s="129" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -36514,7 +36511,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>14</v>
@@ -36583,10 +36580,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="4">
         <v>1</v>
@@ -36743,7 +36740,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -36802,10 +36799,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -36883,7 +36880,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -36944,16 +36941,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -37380,7 +37377,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -37453,10 +37450,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="50" t="s">
@@ -37466,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -37507,7 +37504,7 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>0</v>
@@ -37558,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>14</v>
@@ -37603,10 +37600,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -37713,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -37772,10 +37769,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -37853,7 +37850,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -37914,16 +37911,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -38207,10 +38204,10 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="50" t="s">
@@ -38220,13 +38217,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="Y15" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -38261,7 +38258,7 @@
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>0</v>
@@ -38312,7 +38309,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X17" s="4" t="s">
         <v>14</v>
@@ -38357,10 +38354,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="55">
         <v>1</v>
@@ -38467,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X20" s="138" t="s">
         <v>14</v>
@@ -38526,10 +38523,10 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T21" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U21" s="97">
         <v>1</v>
@@ -38607,7 +38604,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>25</v>
@@ -38668,16 +38665,16 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U23" s="97">
         <v>1</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W23" s="23" t="s">
         <v>0</v>
@@ -39102,7 +39099,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -39175,10 +39172,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="T3" s="53"/>
       <c r="U3" s="3" t="s">
@@ -39188,10 +39185,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="X3" s="50" t="s">
         <v>274</v>
-      </c>
-      <c r="X3" s="50" t="s">
-        <v>275</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>0</v>
@@ -39253,7 +39250,7 @@
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X4" s="54" t="s">
         <v>0</v>
@@ -39296,7 +39293,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X5" s="55" t="s">
         <v>14</v>
@@ -39359,10 +39356,10 @@
       <c r="Q6" s="39"/>
       <c r="R6" s="64"/>
       <c r="S6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -39440,7 +39437,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X7" s="56" t="s">
         <v>71</v>
@@ -39479,10 +39476,10 @@
       <c r="Q8" s="39"/>
       <c r="R8" s="65"/>
       <c r="S8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="55">
         <v>1</v>
@@ -39634,7 +39631,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>14</v>
@@ -39701,10 +39698,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U12" s="55">
         <v>1</v>
@@ -39784,7 +39781,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>25</v>
@@ -39851,16 +39848,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T14" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U14" s="55">
         <v>1</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6" t="s">
@@ -40152,10 +40149,10 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
@@ -40165,10 +40162,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="X18" s="50" t="s">
         <v>281</v>
-      </c>
-      <c r="X18" s="50" t="s">
-        <v>282</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>0</v>
@@ -40230,7 +40227,7 @@
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X19" s="54" t="s">
         <v>0</v>
@@ -40273,7 +40270,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X20" s="55" t="s">
         <v>14</v>
@@ -40334,10 +40331,10 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="64"/>
       <c r="S21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U21" s="55">
         <v>1</v>
@@ -40415,7 +40412,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X22" s="56" t="s">
         <v>71</v>
@@ -40454,10 +40451,10 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="65"/>
       <c r="S23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U23" s="55">
         <v>1</v>
@@ -40601,7 +40598,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X26" s="138" t="s">
         <v>14</v>
@@ -40660,10 +40657,10 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T27" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U27" s="97">
         <v>1</v>
@@ -40741,7 +40738,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>25</v>
@@ -40802,16 +40799,16 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W29" s="23" t="s">
         <v>0</v>
@@ -41095,10 +41092,10 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="s">
@@ -41108,10 +41105,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" s="50" t="s">
         <v>285</v>
-      </c>
-      <c r="X33" s="50" t="s">
-        <v>286</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>0</v>
@@ -41173,7 +41170,7 @@
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X34" s="54" t="s">
         <v>0</v>
@@ -41216,7 +41213,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X35" s="55" t="s">
         <v>14</v>
@@ -41279,10 +41276,10 @@
       <c r="Q36" s="39"/>
       <c r="R36" s="64"/>
       <c r="S36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U36" s="55">
         <v>1</v>
@@ -41360,7 +41357,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X37" s="56" t="s">
         <v>71</v>
@@ -41399,10 +41396,10 @@
       <c r="Q38" s="39"/>
       <c r="R38" s="65"/>
       <c r="S38" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U38" s="55">
         <v>1</v>
@@ -41548,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X41" s="138" t="s">
         <v>14</v>
@@ -41607,10 +41604,10 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T42" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U42" s="97">
         <v>1</v>
@@ -41688,7 +41685,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X43" s="19" t="s">
         <v>25</v>
@@ -41749,16 +41746,16 @@
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U44" s="97">
         <v>1</v>
       </c>
       <c r="V44" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W44" s="23" t="s">
         <v>0</v>
@@ -42185,7 +42182,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -42258,19 +42255,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="101" t="s">
         <v>326</v>
-      </c>
-      <c r="S3" s="101" t="s">
-        <v>327</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
       <c r="W3" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="X3" s="94" t="s">
         <v>328</v>
-      </c>
-      <c r="X3" s="94" t="s">
-        <v>329</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -42338,7 +42335,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -42401,10 +42398,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -42482,7 +42479,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X6" s="104" t="s">
         <v>25</v>
@@ -42543,16 +42540,16 @@
       <c r="Q7" s="38"/>
       <c r="R7" s="105"/>
       <c r="S7" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="102" t="s">
         <v>13</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W7" s="103" t="s">
         <v>0</v>
@@ -42614,10 +42611,10 @@
       <c r="Q8" s="38"/>
       <c r="R8" s="105"/>
       <c r="S8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="102" t="s">
         <v>13</v>
@@ -42821,7 +42818,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X11" s="124" t="s">
         <v>14</v>
@@ -42888,10 +42885,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U12" s="132">
         <v>1</v>
@@ -42971,7 +42968,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="121" t="s">
         <v>25</v>
@@ -43038,16 +43035,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T14" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U14" s="132">
         <v>1</v>
       </c>
       <c r="V14" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W14" s="124"/>
       <c r="X14" s="124" t="s">
@@ -43855,7 +43852,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -43928,19 +43925,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="S3" s="139" t="s">
         <v>335</v>
-      </c>
-      <c r="S3" s="139" t="s">
-        <v>336</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="98"/>
       <c r="V3" s="34"/>
       <c r="W3" s="139" t="s">
+        <v>336</v>
+      </c>
+      <c r="X3" s="139" t="s">
         <v>337</v>
-      </c>
-      <c r="X3" s="139" t="s">
-        <v>338</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -44008,7 +44005,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -44071,10 +44068,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -44152,7 +44149,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="137" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X6" s="104" t="s">
         <v>25</v>
@@ -44207,10 +44204,10 @@
       <c r="Q7" s="37"/>
       <c r="R7" s="99"/>
       <c r="S7" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="102">
         <v>1</v>
@@ -44274,16 +44271,16 @@
       <c r="Q8" s="37"/>
       <c r="R8" s="99"/>
       <c r="S8" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="102" t="s">
         <v>13</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W8" s="103"/>
       <c r="X8" s="104" t="s">
@@ -44341,10 +44338,10 @@
       <c r="Q9" s="37"/>
       <c r="R9" s="99"/>
       <c r="S9" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U9" s="102" t="s">
         <v>13</v>
@@ -44408,7 +44405,7 @@
       <c r="U10" s="102"/>
       <c r="V10" s="31"/>
       <c r="W10" s="137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X10" s="104" t="s">
         <v>14</v>
@@ -44463,10 +44460,10 @@
       <c r="Q11" s="37"/>
       <c r="R11" s="99"/>
       <c r="S11" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U11" s="102">
         <v>1</v>
@@ -44652,7 +44649,7 @@
       <c r="U14" s="102"/>
       <c r="V14" s="31"/>
       <c r="W14" s="137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X14" s="104" t="s">
         <v>71</v>
@@ -44705,7 +44702,7 @@
       <c r="Q15" s="37"/>
       <c r="R15" s="99"/>
       <c r="S15" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T15" s="31"/>
       <c r="U15" s="102">
@@ -44764,7 +44761,7 @@
       <c r="Q16" s="37"/>
       <c r="R16" s="99"/>
       <c r="S16" s="137" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T16" s="31"/>
       <c r="U16" s="102">
@@ -44949,7 +44946,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X19" s="124" t="s">
         <v>14</v>
@@ -45016,10 +45013,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T20" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U20" s="132">
         <v>1</v>
@@ -45099,7 +45096,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X21" s="121" t="s">
         <v>25</v>
@@ -45166,16 +45163,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T22" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U22" s="132">
         <v>1</v>
       </c>
       <c r="V22" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W22" s="124"/>
       <c r="X22" s="124" t="s">
@@ -46102,7 +46099,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -46175,19 +46172,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="S3" s="94" t="s">
         <v>343</v>
-      </c>
-      <c r="S3" s="94" t="s">
-        <v>344</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="98"/>
       <c r="V3" s="34"/>
       <c r="W3" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="X3" s="101" t="s">
         <v>345</v>
-      </c>
-      <c r="X3" s="101" t="s">
-        <v>346</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -46255,7 +46252,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -46318,10 +46315,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -46399,7 +46396,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X6" s="104" t="s">
         <v>25</v>
@@ -46454,10 +46451,10 @@
       <c r="Q7" s="37"/>
       <c r="R7" s="99"/>
       <c r="S7" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="102">
         <v>1</v>
@@ -46521,10 +46518,10 @@
       <c r="Q8" s="37"/>
       <c r="R8" s="99"/>
       <c r="S8" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="102" t="s">
         <v>13</v>
@@ -46586,10 +46583,10 @@
       <c r="Q9" s="37"/>
       <c r="R9" s="99"/>
       <c r="S9" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U9" s="102" t="s">
         <v>13</v>
@@ -46793,7 +46790,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X12" s="124" t="s">
         <v>14</v>
@@ -46860,10 +46857,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T13" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U13" s="132">
         <v>1</v>
@@ -46943,7 +46940,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X14" s="121" t="s">
         <v>25</v>
@@ -47010,16 +47007,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T15" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U15" s="132">
         <v>1</v>
       </c>
       <c r="V15" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W15" s="124"/>
       <c r="X15" s="124" t="s">
@@ -47948,7 +47945,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -48010,7 +48007,7 @@
         <v>80</v>
       </c>
       <c r="Y3" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -48230,7 +48227,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U6" s="97">
         <v>1</v>
@@ -48382,7 +48379,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U8" s="97">
         <v>1</v>
@@ -48534,7 +48531,7 @@
         <v>33</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U10" s="97">
         <v>1</v>
@@ -48688,7 +48685,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
@@ -49066,7 +49063,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>14</v>
@@ -49125,10 +49122,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T18" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U18" s="97">
         <v>1</v>
@@ -49206,7 +49203,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>25</v>
@@ -49267,16 +49264,16 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="19"/>
       <c r="X20" s="23" t="s">
@@ -49581,7 +49578,7 @@
         <v>86</v>
       </c>
       <c r="Y24" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -49801,7 +49798,7 @@
         <v>22</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U27" s="97">
         <v>1</v>
@@ -49953,7 +49950,7 @@
         <v>35</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
@@ -50105,7 +50102,7 @@
         <v>33</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U31" s="97">
         <v>1</v>
@@ -50259,7 +50256,7 @@
         <v>35</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U33" s="97">
         <v>1</v>
@@ -50637,7 +50634,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X38" s="23" t="s">
         <v>14</v>
@@ -50696,10 +50693,10 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T39" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U39" s="97">
         <v>1</v>
@@ -50777,7 +50774,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X40" s="19" t="s">
         <v>25</v>
@@ -50838,16 +50835,16 @@
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U41" s="97">
         <v>1</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W41" s="19" t="s">
         <v>0</v>
@@ -51374,7 +51371,7 @@
         <v>22</v>
       </c>
       <c r="T48" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U48" s="97">
         <v>1</v>
@@ -51526,7 +51523,7 @@
         <v>35</v>
       </c>
       <c r="T50" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U50" s="97">
         <v>1</v>
@@ -51678,7 +51675,7 @@
         <v>33</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U52" s="97">
         <v>1</v>
@@ -51832,7 +51829,7 @@
         <v>35</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U54" s="97">
         <v>1</v>
@@ -52210,7 +52207,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X59" s="23" t="s">
         <v>14</v>
@@ -52269,10 +52266,10 @@
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T60" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U60" s="97">
         <v>1</v>
@@ -52350,7 +52347,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X61" s="19" t="s">
         <v>25</v>
@@ -52411,16 +52408,16 @@
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
       <c r="S62" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U62" s="97">
         <v>1</v>
       </c>
       <c r="V62" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W62" s="19" t="s">
         <v>0</v>
@@ -52846,7 +52843,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -52919,19 +52916,19 @@
       <c r="P3" s="119"/>
       <c r="Q3" s="119"/>
       <c r="R3" s="119" t="s">
+        <v>381</v>
+      </c>
+      <c r="S3" s="125" t="s">
         <v>382</v>
-      </c>
-      <c r="S3" s="125" t="s">
-        <v>383</v>
       </c>
       <c r="T3" s="119"/>
       <c r="U3" s="120"/>
       <c r="V3" s="119"/>
       <c r="W3" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="X3" s="125" t="s">
         <v>384</v>
-      </c>
-      <c r="X3" s="125" t="s">
-        <v>385</v>
       </c>
       <c r="Y3" s="119" t="s">
         <v>0</v>
@@ -52975,7 +52972,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X4" s="123" t="s">
         <v>14</v>
@@ -53014,7 +53011,7 @@
       <c r="Q5" s="121"/>
       <c r="R5" s="123"/>
       <c r="S5" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="121" t="s">
         <v>0</v>
@@ -53063,7 +53060,7 @@
       </c>
       <c r="V6" s="121"/>
       <c r="W6" s="124" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X6" s="128" t="s">
         <v>25</v>
@@ -53092,10 +53089,10 @@
       <c r="Q7" s="121"/>
       <c r="R7" s="123"/>
       <c r="S7" s="121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T7" s="121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U7" s="123">
         <v>1</v>
@@ -53129,16 +53126,16 @@
       <c r="Q8" s="121"/>
       <c r="R8" s="123"/>
       <c r="S8" s="121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T8" s="121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U8" s="123">
         <v>1</v>
       </c>
       <c r="V8" s="121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W8" s="124"/>
       <c r="X8" s="127"/>
@@ -53166,16 +53163,16 @@
       <c r="Q9" s="121"/>
       <c r="R9" s="123"/>
       <c r="S9" s="121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T9" s="121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U9" s="123">
         <v>1</v>
       </c>
       <c r="V9" s="121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W9" s="124"/>
       <c r="X9" s="127"/>
@@ -53281,7 +53278,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X12" s="124" t="s">
         <v>14</v>
@@ -53348,10 +53345,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T13" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U13" s="132">
         <v>1</v>
@@ -53431,7 +53428,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X14" s="121" t="s">
         <v>25</v>
@@ -53498,16 +53495,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T15" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U15" s="132">
         <v>1</v>
       </c>
       <c r="V15" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W15" s="124"/>
       <c r="X15" s="124" t="s">
@@ -54334,7 +54331,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -54407,19 +54404,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="S3" s="101" t="s">
         <v>361</v>
-      </c>
-      <c r="S3" s="101" t="s">
-        <v>362</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="98"/>
       <c r="V3" s="34"/>
       <c r="W3" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="X3" s="107" t="s">
         <v>363</v>
-      </c>
-      <c r="X3" s="107" t="s">
-        <v>364</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -54487,7 +54484,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -54550,10 +54547,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -54623,7 +54620,7 @@
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X6" s="108" t="s">
         <v>25</v>
@@ -54676,10 +54673,10 @@
       <c r="Q7" s="37"/>
       <c r="R7" s="99"/>
       <c r="S7" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="102">
         <v>1</v>
@@ -54737,16 +54734,16 @@
       <c r="Q8" s="37"/>
       <c r="R8" s="99"/>
       <c r="S8" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="102">
         <v>1</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W8" s="103"/>
       <c r="X8" s="104"/>
@@ -54798,10 +54795,10 @@
       <c r="Q9" s="37"/>
       <c r="R9" s="99"/>
       <c r="S9" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U9" s="102">
         <v>1</v>
@@ -54985,7 +54982,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X12" s="124" t="s">
         <v>14</v>
@@ -55052,10 +55049,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T13" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U13" s="132">
         <v>1</v>
@@ -55135,7 +55132,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X14" s="121" t="s">
         <v>25</v>
@@ -55202,16 +55199,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T15" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U15" s="132">
         <v>1</v>
       </c>
       <c r="V15" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W15" s="124"/>
       <c r="X15" s="124" t="s">
@@ -55642,7 +55639,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -55715,19 +55712,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" s="94" t="s">
         <v>351</v>
-      </c>
-      <c r="S3" s="94" t="s">
-        <v>352</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="98"/>
       <c r="V3" s="34"/>
       <c r="W3" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="X3" s="101" t="s">
         <v>353</v>
-      </c>
-      <c r="X3" s="101" t="s">
-        <v>354</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -55795,7 +55792,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -55858,10 +55855,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -55998,7 +55995,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X7" s="124" t="s">
         <v>14</v>
@@ -56065,10 +56062,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T8" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="132">
         <v>1</v>
@@ -56148,7 +56145,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X9" s="121" t="s">
         <v>25</v>
@@ -56215,16 +56212,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="132">
         <v>1</v>
       </c>
       <c r="V10" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W10" s="124"/>
       <c r="X10" s="124" t="s">
@@ -57146,7 +57143,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -57219,19 +57216,19 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="S3" s="94" t="s">
         <v>356</v>
-      </c>
-      <c r="S3" s="94" t="s">
-        <v>357</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="98"/>
       <c r="V3" s="34"/>
       <c r="W3" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="X3" s="101" t="s">
         <v>358</v>
-      </c>
-      <c r="X3" s="101" t="s">
-        <v>359</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>0</v>
@@ -57299,7 +57296,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X4" s="102" t="s">
         <v>14</v>
@@ -57362,10 +57359,10 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="99"/>
       <c r="S5" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U5" s="102">
         <v>1</v>
@@ -57500,7 +57497,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X7" s="124" t="s">
         <v>14</v>
@@ -57567,10 +57564,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T8" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="132">
         <v>1</v>
@@ -57650,7 +57647,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X9" s="121" t="s">
         <v>25</v>
@@ -57717,16 +57714,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="132">
         <v>1</v>
       </c>
       <c r="V10" s="121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W10" s="124"/>
       <c r="X10" s="124" t="s">
@@ -58529,7 +58526,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -58623,7 +58620,7 @@
         <v>94</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -58773,7 +58770,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -58881,7 +58878,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="55">
         <v>1</v>
@@ -58934,7 +58931,7 @@
         <v>97</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U9" s="55">
         <v>1</v>
@@ -59092,7 +59089,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>14</v>
@@ -59151,10 +59148,10 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T13" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U13" s="97">
         <v>1</v>
@@ -59232,7 +59229,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>25</v>
@@ -59293,16 +59290,16 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U15" s="97">
         <v>1</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W15" s="23" t="s">
         <v>0</v>
@@ -59611,7 +59608,7 @@
         <v>101</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -59761,7 +59758,7 @@
         <v>22</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U22" s="55">
         <v>1</v>
@@ -59869,7 +59866,7 @@
         <v>35</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U24" s="55">
         <v>1</v>
@@ -59922,7 +59919,7 @@
         <v>97</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U25" s="55">
         <v>1</v>
@@ -60080,7 +60077,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X28" s="23" t="s">
         <v>14</v>
@@ -60139,10 +60136,10 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T29" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
@@ -60220,7 +60217,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>25</v>
@@ -60281,16 +60278,16 @@
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U31" s="97">
         <v>1</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W31" s="23" t="s">
         <v>0</v>
@@ -60601,7 +60598,7 @@
         <v>105</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -60751,7 +60748,7 @@
         <v>22</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U38" s="55">
         <v>1</v>
@@ -60859,7 +60856,7 @@
         <v>35</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U40" s="55">
         <v>1</v>
@@ -60912,7 +60909,7 @@
         <v>97</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U41" s="55">
         <v>1</v>
@@ -61070,7 +61067,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X44" s="23" t="s">
         <v>14</v>
@@ -61129,10 +61126,10 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T45" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U45" s="97">
         <v>1</v>
@@ -61210,7 +61207,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X46" s="19" t="s">
         <v>25</v>
@@ -61271,16 +61268,16 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U47" s="97">
         <v>1</v>
       </c>
       <c r="V47" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W47" s="23" t="s">
         <v>0</v>
@@ -61591,7 +61588,7 @@
         <v>109</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -61741,7 +61738,7 @@
         <v>22</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U54" s="55">
         <v>1</v>
@@ -61849,7 +61846,7 @@
         <v>35</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U56" s="55">
         <v>1</v>
@@ -61902,7 +61899,7 @@
         <v>97</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U57" s="55">
         <v>1</v>
@@ -62060,7 +62057,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X60" s="23" t="s">
         <v>14</v>
@@ -62119,10 +62116,10 @@
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
       <c r="S61" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T61" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U61" s="97">
         <v>1</v>
@@ -62200,7 +62197,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X62" s="19" t="s">
         <v>25</v>
@@ -62261,16 +62258,16 @@
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U63" s="97">
         <v>1</v>
       </c>
       <c r="V63" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W63" s="23" t="s">
         <v>0</v>
@@ -62581,7 +62578,7 @@
         <v>113</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -62731,7 +62728,7 @@
         <v>22</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U70" s="55">
         <v>1</v>
@@ -62839,7 +62836,7 @@
         <v>35</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U72" s="55">
         <v>1</v>
@@ -62892,7 +62889,7 @@
         <v>97</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U73" s="55">
         <v>1</v>
@@ -63050,7 +63047,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X76" s="23" t="s">
         <v>14</v>
@@ -63109,10 +63106,10 @@
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T77" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U77" s="97">
         <v>1</v>
@@ -63190,7 +63187,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X78" s="19" t="s">
         <v>25</v>
@@ -63251,16 +63248,16 @@
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T79" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U79" s="97">
         <v>1</v>
       </c>
       <c r="V79" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W79" s="23" t="s">
         <v>0</v>
@@ -63571,7 +63568,7 @@
         <v>117</v>
       </c>
       <c r="Y83" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -63721,7 +63718,7 @@
         <v>22</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U86" s="55">
         <v>1</v>
@@ -63829,7 +63826,7 @@
         <v>35</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U88" s="55">
         <v>1</v>
@@ -63882,7 +63879,7 @@
         <v>97</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U89" s="55">
         <v>1</v>
@@ -64040,7 +64037,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X92" s="23" t="s">
         <v>14</v>
@@ -64099,10 +64096,10 @@
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T93" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U93" s="97">
         <v>1</v>
@@ -64180,7 +64177,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X94" s="19" t="s">
         <v>25</v>
@@ -64241,16 +64238,16 @@
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T95" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U95" s="97">
         <v>1</v>
       </c>
       <c r="V95" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W95" s="23" t="s">
         <v>0</v>
@@ -64681,7 +64678,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -64757,7 +64754,7 @@
         <v>118</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>0</v>
@@ -64775,7 +64772,7 @@
         <v>120</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -64969,7 +64966,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="55">
         <v>1</v>
@@ -65123,7 +65120,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="55">
         <v>1</v>
@@ -65279,7 +65276,7 @@
         <v>123</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="55">
         <v>1</v>
@@ -65409,7 +65406,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U12" s="55">
         <v>1</v>
@@ -65671,7 +65668,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>14</v>
@@ -65730,10 +65727,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T18" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U18" s="97">
         <v>1</v>
@@ -65811,7 +65808,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>25</v>
@@ -65872,16 +65869,16 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="19" t="s">
         <v>0</v>
@@ -66186,7 +66183,7 @@
         <v>127</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -66380,7 +66377,7 @@
         <v>22</v>
       </c>
       <c r="T27" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U27" s="132">
         <v>1</v>
@@ -66534,7 +66531,7 @@
         <v>35</v>
       </c>
       <c r="T29" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U29" s="132">
         <v>1</v>
@@ -66690,7 +66687,7 @@
         <v>123</v>
       </c>
       <c r="T31" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U31" s="132">
         <v>1</v>
@@ -66844,7 +66841,7 @@
         <v>35</v>
       </c>
       <c r="T33" s="121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U33" s="132">
         <v>1</v>
@@ -67202,7 +67199,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X38" s="23" t="s">
         <v>14</v>
@@ -67261,10 +67258,10 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T39" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U39" s="97">
         <v>1</v>
@@ -67342,7 +67339,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X40" s="19" t="s">
         <v>25</v>
@@ -67403,16 +67400,16 @@
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U41" s="97">
         <v>1</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W41" s="19" t="s">
         <v>0</v>
@@ -67683,7 +67680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -67837,7 +67836,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -67915,7 +67914,7 @@
         <v>128</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>0</v>
@@ -67933,7 +67932,7 @@
         <v>130</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -68061,7 +68060,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>14</v>
@@ -68131,7 +68130,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="37">
         <v>1</v>
@@ -68220,7 +68219,7 @@
         <v>131</v>
       </c>
       <c r="X7" s="36" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="36" t="s">
         <v>0</v>
@@ -68263,7 +68262,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="36">
         <v>1</v>
@@ -68421,7 +68420,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X11" s="138" t="s">
         <v>14</v>
@@ -68480,10 +68479,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U12" s="97">
         <v>1</v>
@@ -68561,7 +68560,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>25</v>
@@ -68622,16 +68621,16 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U14" s="97">
         <v>1</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W14" s="19" t="s">
         <v>0</v>
@@ -68921,28 +68920,28 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="S18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="T18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" s="34" t="s">
+      <c r="X18" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="X18" s="34" t="s">
-        <v>136</v>
-      </c>
       <c r="Y18" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z18"/>
       <c r="AA18"/>
@@ -69070,7 +69069,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X20" s="37" t="s">
         <v>14</v>
@@ -69140,7 +69139,7 @@
         <v>22</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U21" s="37">
         <v>1</v>
@@ -69229,7 +69228,7 @@
         <v>131</v>
       </c>
       <c r="X22" s="36" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="Y22" s="36" t="s">
         <v>0</v>
@@ -69272,7 +69271,7 @@
         <v>35</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U23" s="36">
         <v>1</v>
@@ -69430,7 +69429,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X26" s="138" t="s">
         <v>14</v>
@@ -69489,10 +69488,10 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T27" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U27" s="97">
         <v>1</v>
@@ -69570,7 +69569,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>25</v>
@@ -69631,16 +69630,16 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" s="97">
         <v>1</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W29" s="19" t="s">
         <v>0</v>
@@ -70184,7 +70183,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -70259,10 +70258,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="T3" s="98"/>
       <c r="U3" s="3" t="s">
@@ -70272,13 +70271,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -70424,7 +70423,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="4">
         <v>1</v>
@@ -70530,7 +70529,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="4">
         <v>1</v>
@@ -70632,7 +70631,7 @@
         <v>33</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="39">
         <v>1</v>
@@ -70736,7 +70735,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U12" s="39">
         <v>1</v>
@@ -70992,7 +70991,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X17" s="138" t="s">
         <v>14</v>
@@ -71051,10 +71050,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T18" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U18" s="97">
         <v>1</v>
@@ -71132,7 +71131,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>25</v>
@@ -71193,16 +71192,16 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="19" t="s">
         <v>0</v>
@@ -71572,7 +71571,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -71621,10 +71620,10 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T3" s="98"/>
       <c r="U3" s="34" t="s">
@@ -71634,13 +71633,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="X3" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="X3" s="34" t="s">
-        <v>298</v>
-      </c>
       <c r="Y3" s="94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -71732,7 +71731,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="137" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>14</v>
@@ -71776,7 +71775,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="111">
         <v>1</v>
@@ -71879,7 +71878,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X8" s="138" t="s">
         <v>14</v>
@@ -71914,10 +71913,10 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T9" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="97">
         <v>1</v>
@@ -71971,7 +71970,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>25</v>
@@ -72008,16 +72007,16 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" s="97">
         <v>1</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W11" s="23" t="s">
         <v>0</v>
@@ -72344,7 +72343,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
@@ -72417,10 +72416,10 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>289</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>290</v>
       </c>
       <c r="T3" s="98"/>
       <c r="U3" s="30" t="s">
@@ -72430,13 +72429,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X3" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="X3" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="Y3" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -72536,7 +72535,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X5" s="77" t="s">
         <v>14</v>
@@ -72575,10 +72574,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U6" s="78">
         <v>1</v>
@@ -72676,7 +72675,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U8" s="48">
         <v>1</v>
@@ -72769,10 +72768,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T10" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U10" s="48">
         <v>1</v>
@@ -72868,7 +72867,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U12" s="48">
         <v>1</v>
@@ -73074,7 +73073,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="149" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X17" s="138" t="s">
         <v>14</v>
@@ -73133,10 +73132,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T18" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U18" s="97">
         <v>1</v>
@@ -73214,7 +73213,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>25</v>
@@ -73275,16 +73274,16 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" s="97">
         <v>1</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="48" t="s">
         <v>0</v>

--- a/builder/src/main/resources/templates/v2_regulated/ESPD-CriteriaTaxonomy-REGULATED-V2.0.2.xlsx
+++ b/builder/src/main/resources/templates/v2_regulated/ESPD-CriteriaTaxonomy-REGULATED-V2.0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetbeansProjects\espd-vcd-system\builder\src\main\resources\templates\v2_regulated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66208BBB-A22B-415F-9F92-C4FD9C940A1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9745B1-6882-4A20-A214-0D9FD7DF1851}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11507" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="427">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W123" sqref="W123"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13828,7 +13828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14660,7 +14662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15681,7 +15685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16686,7 +16692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16982,8 +16990,8 @@
         <v>0</v>
       </c>
       <c r="T5" s="19"/>
-      <c r="U5" s="19">
-        <v>1</v>
+      <c r="U5" s="97" t="s">
+        <v>20</v>
       </c>
       <c r="V5" s="23" t="s">
         <v>0</v>
@@ -17096,7 +17104,7 @@
       <c r="T7" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="97">
         <v>1</v>
       </c>
       <c r="V7" s="49" t="s">
@@ -67680,8 +67688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
